--- a/biology/Botanique/Veitchia/Veitchia.xlsx
+++ b/biology/Botanique/Veitchia/Veitchia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veitchiia
 Veitchia est un genre de plantes monocotylédones appartenant à la famille des palmiers, originaire d'Océanie. Il doit son nom à la famille d'horticulteurs Veitch.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe. Les stipes sont minces, solitaires, et mesurent de 6 à 30 mètres de haut.
 Feuilles. Les feuilles sont pennées et composées de pétioles courts et de segments larges et effilés.
 L'inflorescence porte des fleurs mâles et femelles.
-Infrutescence : après fécondation, les fleurs femelles génèrent des fruits ovoïdes. Chez Veitchia merrillii (renommé Adonidia merrillii depuis APG III [1]) le fruit (de 3 à 4 cm) est de couleur rouge vif. Les fruits arrivent à maturité en hiver, d'où le nom de « palmier de Noël » attribué aux espèces de ce genre.</t>
+Infrutescence : après fécondation, les fleurs femelles génèrent des fruits ovoïdes. Chez Veitchia merrillii (renommé Adonidia merrillii depuis APG III ) le fruit (de 3 à 4 cm) est de couleur rouge vif. Les fruits arrivent à maturité en hiver, d'où le nom de « palmier de Noël » attribué aux espèces de ce genre.</t>
         </is>
       </c>
     </row>
@@ -545,11 +559,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Ptychospermatinae[2]
+Sous-tribu des Ptychospermatinae
 Le genre partage sa sous-tribu avec les genres suivants :Ptychosperma, Ponapea, Adonidia, Balaka, Carpentaria, Wodyetia, Drymophloeus, Normanbya, Brassiophoenix,  Ptychococcus,  Jailoloa, Manjekia et Wallaceodoxa .
 </t>
         </is>
@@ -579,7 +595,9 @@
           <t>Habitat distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces poussent dans des forêts tropicales humides. L'aire de répartition du genre s'étend des Philippines à la Nouvelle-Calédonie et aux Îles Fidji, en passant par le Vanuatu.
 Espèce tropicale, elle est cependant capable de résister à de courtes périodes de gel (-2 °C), mais elle n'est pas acclimatable dans les régions tempérées.
@@ -611,9 +629,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 fevrier 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 fevrier 2022) :
 Veitchia arecina 		Becc.
 Veitchia filifera 		(H.Wendl.) H.E.Moore
 Veitchia joannis 		H.Wendl.
@@ -625,7 +645,7 @@
 Veitchia subdisticha 		(H.E.Moore) C.Lewis &amp; Zona
 Veitchia vitiensis 		(H.Wendl.) H.E.Moore
 Veitchia winin 			H.E.Moore
-Selon Catalogue of Life                                   (16 juillet 2014)[4] :
+Selon Catalogue of Life                                   (16 juillet 2014) :
 Veitchia arecina Becc., Webbia 5: 78 (1921).
 Veitchia filifera (H.Wendl.) H.E.Moore, Gentes Herb. 8: 533 (1957).
 Veitchia joannis H.Wendl. in B.Seemann, Fl. Vit.: 271 (1868).
@@ -634,7 +654,7 @@
 Veitchia spiralis H.Wendl. in B.Seemann, Fl. Vit.: 270 (1868).
 Veitchia vitiensis (H.Wendl.) H.E.Moore, Gentes Herb. 8: 514 (1957).
 Veitchia winin H.E.Moore, Gentes Herb. 8: 499 (1957).
-Selon World Checklist of Selected Plant Families (WCSP)  (16 juillet 2014)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (16 juillet 2014) :
 Veitchia arecina Becc. (1921)
 Veitchia filifera (H.Wendl.) H.E.Moore (1957)
 Veitchia joannis H.Wendl. (1868)
@@ -646,7 +666,7 @@
 Veitchia subdisticha (H.E.Moore) C.Lewis &amp; Zona (2011)
 Veitchia vitiensis (H.Wendl.) H.E.Moore (1957)
 Veitchia winin H.E.Moore (1957)
-Selon NCBI  (16 juillet 2014)[6] :
+Selon NCBI  (16 juillet 2014) :
 Veitchia arecina
 Veitchia filifera
 Veitchia joannis
@@ -657,7 +677,7 @@
 Veitchia subdisticha
 Veitchia vitiensis
 Veitchia winin
-Selon Tropicos                                           (16 juillet 2014)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 juillet 2014) (Attention liste brute contenant possiblement des synonymes) :
 Veitchia arecina Becc.
 Veitchia canterburyana (C. Moore &amp; F. Muell.) H. Wendl.
 Veitchia filifera (H. Wendl.) H.E. Moore
